--- a/data/scheduling_DNN/predict/0.5/result23.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result23.xlsx
@@ -570,10 +570,10 @@
         <v>0.8884549140930176</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5138784646987915</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1204615384340286</v>
+        <v>0.1403075158596039</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9551630020141602</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8740517497062683</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1556846350431442</v>
+        <v>0.006579035427421331</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9185559749603271</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.8812099099159241</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1735978722572327</v>
+        <v>0.001394728547893465</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8967239856719971</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.5165021419525146</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04252925887703896</v>
+        <v>0.1445686519145966</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8834071159362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4194990694522858</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1365935355424881</v>
+        <v>0.2152106761932373</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8597118854522705</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4878968000411987</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03520047664642334</v>
+        <v>0.1382464617490768</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>1.07122802734375</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4032029211521149</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5190442204475403</v>
+        <v>0.4462575912475586</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8737270832061768</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.5162075757980347</v>
       </c>
       <c r="W9" t="n">
-        <v>0.09721730649471283</v>
+        <v>0.1278201937675476</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8725309371948242</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03863106295466423</v>
+        <v>4.227487443131395e-05</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.901339054107666</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.397248238325119</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002019067527726293</v>
+        <v>0.2541075348854065</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8686208724975586</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5188067555427551</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2165987491607666</v>
+        <v>0.1223699152469635</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8623161315917969</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.8974140286445618</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1281271129846573</v>
+        <v>0.001231862348504364</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8651430606842041</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5078996419906616</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04949578642845154</v>
+        <v>0.1276228576898575</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9484431743621826</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.4990026950836182</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3571922779083252</v>
+        <v>0.2019967436790466</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.878809928894043</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8658251166343689</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03263304382562637</v>
+        <v>0.0001686053437879309</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8664481639862061</v>
       </c>
       <c r="V17" t="n">
-        <v>0.944080114364624</v>
+        <v>0.8973230719566345</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006026719696819782</v>
+        <v>0.000953259936068207</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8916950225830078</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3991380333900452</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1277516335248947</v>
+        <v>0.2426123917102814</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9151768684387207</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4262558817863464</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2617095708847046</v>
+        <v>0.239043727517128</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8746120929718018</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5141915082931519</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2218454480171204</v>
+        <v>0.1299030035734177</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8753421306610107</v>
       </c>
       <c r="V21" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4935803115367889</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2751611769199371</v>
+        <v>0.1457420885562897</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5185060501098633</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8575485944747925</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0003461946034803987</v>
+        <v>0.1149498447775841</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5583419799804688</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8673864006996155</v>
       </c>
       <c r="W23" t="n">
-        <v>5.943014912190847e-06</v>
+        <v>0.09550845623016357</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5948619842529297</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.3976559340953827</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0004031429707538337</v>
+        <v>0.03889022767543793</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5509181022644043</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.5486308932304382</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0001014690569718368</v>
+        <v>5.231325303611811e-06</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5279209613800049</v>
       </c>
       <c r="V26" t="n">
-        <v>0.504324197769165</v>
+        <v>0.5097718834877014</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0005568072665482759</v>
+        <v>0.0003293890331406146</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5133368968963623</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.5183017253875732</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01650624163448811</v>
+        <v>2.464952194713987e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.569044828414917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5127993822097778</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0352926142513752</v>
+        <v>0.003163550281897187</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5756800174713135</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.3972501158714294</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04295804724097252</v>
+        <v>0.03183722868561745</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5372881889343262</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.500841498374939</v>
       </c>
       <c r="W30" t="n">
-        <v>0.007503499742597342</v>
+        <v>0.001328361220657825</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5134849548339844</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8836846351623535</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01957153528928757</v>
+        <v>0.1370477974414825</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5252640247344971</v>
       </c>
       <c r="V32" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8973489999771118</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01723736710846424</v>
+        <v>0.1384472250938416</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5109241008758545</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.3972523808479309</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01966364122927189</v>
+        <v>0.01292125973850489</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5865850448608398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.5067451596260071</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004865837283432484</v>
+        <v>0.006374407093971968</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4030739665031433</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1810613423585892</v>
+        <v>0.01331163384020329</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5295090675354004</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.4044987559318542</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002692354144528508</v>
+        <v>0.01562757790088654</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5112769603729248</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.504608690738678</v>
       </c>
       <c r="W37" t="n">
-        <v>0.09566726535558701</v>
+        <v>4.446582170203328e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5116491317749023</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4147588610649109</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02029084041714668</v>
+        <v>0.009387724101543427</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5186977386474609</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01228615827858448</v>
+        <v>1.765386878105346e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5129060745239258</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.8864356875419617</v>
       </c>
       <c r="W40" t="n">
-        <v>5.787694135506172e-06</v>
+        <v>0.1395243704319</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5161380767822266</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.50971519947052</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0006486671627499163</v>
+        <v>4.125335181015544e-05</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3956840038299561</v>
       </c>
       <c r="V42" t="n">
-        <v>0.654166579246521</v>
+        <v>0.8727050423622131</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06681324541568756</v>
+        <v>0.2275490760803223</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4274368286132812</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.3972356915473938</v>
       </c>
       <c r="W43" t="n">
-        <v>0.005247220862656832</v>
+        <v>0.0009121086914092302</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3870470523834229</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.4921502470970154</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0001361581380479038</v>
+        <v>0.01104668155312538</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3867180347442627</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4014411568641663</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006321641616523266</v>
+        <v>0.000216770320548676</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3896000385284424</v>
       </c>
       <c r="V46" t="n">
-        <v>0.672245979309082</v>
+        <v>0.3976603746414185</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0798887312412262</v>
+        <v>6.49690191494301e-05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3911778926849365</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.3976628184318542</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0001565038692206144</v>
+        <v>4.20542637584731e-05</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3942551612854004</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.5005799531936646</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03336597606539726</v>
+        <v>0.01130496151745319</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3842079639434814</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.5176408290863037</v>
       </c>
       <c r="W49" t="n">
-        <v>0.08902750164270401</v>
+        <v>0.01780433021485806</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.387706995010376</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.4031298756599426</v>
       </c>
       <c r="W50" t="n">
-        <v>4.40229669038672e-05</v>
+        <v>0.0002378652425250039</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3863511085510254</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8708418607711792</v>
       </c>
       <c r="W51" t="n">
-        <v>0.00126584165263921</v>
+        <v>0.2347312867641449</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4315900802612305</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4115913808345795</v>
       </c>
       <c r="W52" t="n">
-        <v>0.006775969639420509</v>
+        <v>0.0003999479813501239</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3852369785308838</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4970931708812714</v>
       </c>
       <c r="W53" t="n">
-        <v>0.1807516366243362</v>
+        <v>0.01251180749386549</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3936328887939453</v>
       </c>
       <c r="V54" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.3989916741847992</v>
       </c>
       <c r="W54" t="n">
-        <v>0.3011684715747833</v>
+        <v>2.871658034564462e-05</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3849899768829346</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.8665275573730469</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01397053617984056</v>
+        <v>0.2318784445524216</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3853709697723389</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8619301319122314</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0003322293632663786</v>
+        <v>0.2271086424589157</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3843591213226318</v>
       </c>
       <c r="V57" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.398987203836441</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1590715050697327</v>
+        <v>0.0002139807911589742</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4378149509429932</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5117952227592468</v>
       </c>
       <c r="W58" t="n">
-        <v>0.00117170880548656</v>
+        <v>0.005473080556839705</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3972539901733398</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5204395055770874</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0026193808298558</v>
+        <v>0.01517467107623816</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3907439708709717</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8715453147888184</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01531653385609388</v>
+        <v>0.2311699390411377</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.38419508934021</v>
       </c>
       <c r="V61" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.3976678848266602</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3116786777973175</v>
+        <v>0.0001815162249840796</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8681600093841553</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.893746018409729</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1251219809055328</v>
+        <v>0.0006546438671648502</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8967771530151367</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4109351933002472</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1291664987802505</v>
+        <v>0.2360424101352692</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8646180629730225</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4105355143547058</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2124940156936646</v>
+        <v>0.2061909586191177</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8666529655456543</v>
       </c>
       <c r="V65" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.5098341107368469</v>
       </c>
       <c r="W65" t="n">
-        <v>0.006951685063540936</v>
+        <v>0.1273196935653687</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8697168827056885</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.508036732673645</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2171958535909653</v>
+        <v>0.1308125257492065</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4020426273345947</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1806597113609314</v>
+        <v>0.2741270959377289</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8976099491119385</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8676159977912903</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05992860347032547</v>
+        <v>0.0008996371179819107</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8707211017608643</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4992753863334656</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2706880569458008</v>
+        <v>0.1379719227552414</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8629240989685059</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.4888778328895569</v>
       </c>
       <c r="W70" t="n">
-        <v>0.03642632439732552</v>
+        <v>0.1399106085300446</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9299569129943848</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.5133366584777832</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2769742012023926</v>
+        <v>0.1735724359750748</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8682088851928711</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4159898459911346</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1320455968379974</v>
+        <v>0.204502061009407</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610258102416992</v>
       </c>
       <c r="V73" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4023046493530273</v>
       </c>
       <c r="W73" t="n">
-        <v>0.002823256189003587</v>
+        <v>0.2104251086711884</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8548650741577148</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4262973666191101</v>
       </c>
       <c r="W74" t="n">
-        <v>0.03924057632684708</v>
+        <v>0.1836702823638916</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9164128303527832</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5146301984786987</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2925418615341187</v>
+        <v>0.1614292860031128</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8647189140319824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8664732575416565</v>
       </c>
       <c r="W76" t="n">
-        <v>0.0490625835955143</v>
+        <v>3.077721203226247e-06</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8672587871551514</v>
       </c>
       <c r="V77" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8669180274009705</v>
       </c>
       <c r="W77" t="n">
-        <v>0.04506827890872955</v>
+        <v>1.161172065167193e-07</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8561270236968994</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.8981186747550964</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1661770045757294</v>
+        <v>0.001763298758305609</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9201931953430176</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.516231894493103</v>
       </c>
       <c r="W79" t="n">
-        <v>0.09732431173324585</v>
+        <v>0.1631847321987152</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.855402946472168</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8737794160842896</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1030167266726494</v>
+        <v>0.0003376946260686964</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9143579006195068</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.8745229244232178</v>
       </c>
       <c r="W81" t="n">
-        <v>0.01306070480495691</v>
+        <v>0.001586825354024768</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5773749351501465</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.5170503854751587</v>
       </c>
       <c r="W82" t="n">
-        <v>0.04257204383611679</v>
+        <v>0.003639051225036383</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.554434061050415</v>
       </c>
       <c r="V83" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4931841492652893</v>
       </c>
       <c r="W83" t="n">
-        <v>0.06209404021501541</v>
+        <v>0.003751551732420921</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5399489402770996</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.5024503469467163</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001306889927946031</v>
+        <v>0.001406144467182457</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5441670417785645</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4261229932308197</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02860335260629654</v>
+        <v>0.01393439713865519</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.512894868850708</v>
       </c>
       <c r="V86" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.3976348638534546</v>
       </c>
       <c r="W86" t="n">
-        <v>0.07323195040225983</v>
+        <v>0.01328486856073141</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125360488891602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.397668331861496</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003842001780867577</v>
+        <v>0.01319459266960621</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5131340026855469</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.8577398657798767</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003918915055692196</v>
+        <v>0.1187532022595406</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5161001682281494</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.5197693705558777</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01969227939844131</v>
+        <v>1.346304543403676e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5167219638824463</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8717114329338074</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01284489966928959</v>
+        <v>0.1260175257921219</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5330600738525391</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.5279018878936768</v>
       </c>
       <c r="W91" t="n">
-        <v>6.932515680091456e-05</v>
+        <v>2.660688187461346e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5145108699798584</v>
       </c>
       <c r="V92" t="n">
-        <v>0.54131019115448</v>
+        <v>0.885747492313385</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0007182036060839891</v>
+        <v>0.1378166228532791</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5159890651702881</v>
       </c>
       <c r="V93" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.5165581107139587</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02804335951805115</v>
+        <v>3.238128272187168e-07</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5644011497497559</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8684206604957581</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01295827329158783</v>
+        <v>0.09242786467075348</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5175778865814209</v>
       </c>
       <c r="V95" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.514223575592041</v>
       </c>
       <c r="W95" t="n">
-        <v>0.07038341462612152</v>
+        <v>1.125140261137858e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5130429267883301</v>
       </c>
       <c r="V96" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4105770289897919</v>
       </c>
       <c r="W96" t="n">
-        <v>0.07345962524414062</v>
+        <v>0.01049926038831472</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5202670097351074</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.3989508450031281</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01366647984832525</v>
+        <v>0.01471761148422956</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.511603832244873</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4109424948692322</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0006466952036134899</v>
+        <v>0.01013270486146212</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5167169570922852</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.5163734555244446</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01278306823223829</v>
+        <v>1.179933235562203e-07</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5166358947753906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.5116693377494812</v>
       </c>
       <c r="W100" t="n">
-        <v>0.07092278450727463</v>
+        <v>2.466668956913054e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5138838291168213</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.4142354428768158</v>
       </c>
       <c r="W101" t="n">
-        <v>5.389830803892437e-08</v>
+        <v>0.00992980133742094</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3930490016937256</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.5161834359169006</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1657677441835403</v>
+        <v>0.0151620889082551</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V103" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.3972183465957642</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0001094618855859153</v>
+        <v>3.049969166113442e-08</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4151468873023987</v>
       </c>
       <c r="W104" t="n">
-        <v>0.09642884880304337</v>
+        <v>0.0007455080631189048</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4049160480499268</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8784119486808777</v>
       </c>
       <c r="W105" t="n">
-        <v>0.05645459517836571</v>
+        <v>0.2241983711719513</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3859269618988037</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4019789099693298</v>
       </c>
       <c r="W106" t="n">
-        <v>0.008400150574743748</v>
+        <v>0.0002576650294940919</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3840329647064209</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5163441896438599</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0003739586973097175</v>
+        <v>0.01750626042485237</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3876800537109375</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.8750810027122498</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01598003320395947</v>
+        <v>0.2375596910715103</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3914518356323242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8965972065925598</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01264840830117464</v>
+        <v>0.2551718354225159</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3865499496459961</v>
       </c>
       <c r="V110" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8704661726951599</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1564446240663528</v>
+        <v>0.234174907207489</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3879671096801758</v>
       </c>
       <c r="V111" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8721789121627808</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1559749841690063</v>
+        <v>0.2344610691070557</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.404371976852417</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.39893639087677</v>
       </c>
       <c r="W112" t="n">
-        <v>0.08579667657613754</v>
+        <v>2.954559568024706e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3875269889831543</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5148221254348755</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1818865537643433</v>
+        <v>0.01620405167341232</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389984130859375</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.8632742166519165</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01279059704393148</v>
+        <v>0.2240035086870193</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387199878692627</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8791769742965698</v>
       </c>
       <c r="W115" t="n">
-        <v>0.06496002525091171</v>
+        <v>0.2420414686203003</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V116" t="n">
-        <v>0.541418194770813</v>
+        <v>0.5116084814071655</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0231405645608902</v>
+        <v>0.01495986338704824</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3893561363220215</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.864943265914917</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0227255392819643</v>
+        <v>0.2261831164360046</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4645850658416748</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8545200228691101</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01840157993137836</v>
+        <v>0.1520492732524872</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.389646053314209</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4254921078681946</v>
       </c>
       <c r="W119" t="n">
-        <v>0.0001943769602803513</v>
+        <v>0.001284939586184919</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.402008056640625</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8620255589485168</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1651593744754791</v>
+        <v>0.2116160988807678</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3886678218841553</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.3972090482711792</v>
       </c>
       <c r="W121" t="n">
-        <v>0.08639354258775711</v>
+        <v>7.295254908967763e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.87795090675354</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3976652920246124</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1326207965612411</v>
+        <v>0.2306742668151855</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9596488475799561</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4097186625003815</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3411075174808502</v>
+        <v>0.3024232387542725</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8932981491088867</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4920402765274048</v>
       </c>
       <c r="W124" t="n">
-        <v>0.239699199795723</v>
+        <v>0.1610078811645508</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8721728324890137</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.4939411878585815</v>
       </c>
       <c r="W125" t="n">
-        <v>0.03301393240690231</v>
+        <v>0.143059179186821</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8685729503631592</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.5188835859298706</v>
       </c>
       <c r="W126" t="n">
-        <v>0.04653159528970718</v>
+        <v>0.1222826540470123</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8709776997566223</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1150394305586815</v>
+        <v>0.00322002125903964</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8649361133575439</v>
       </c>
       <c r="V128" t="n">
-        <v>0.514431357383728</v>
+        <v>0.8670256733894348</v>
       </c>
       <c r="W128" t="n">
-        <v>0.122853584587574</v>
+        <v>4.366261237009894e-06</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8596479892730713</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5162069201469421</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1012967601418495</v>
+        <v>0.1179517656564713</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8693258762359619</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.5179774761199951</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2169043570756912</v>
+        <v>0.1234456971287727</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9082400798797607</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8602544665336609</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1638597548007965</v>
+        <v>0.002302619162946939</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8649959564208984</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.867211639881134</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2389502227306366</v>
+        <v>4.909253220830578e-06</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.887131929397583</v>
       </c>
       <c r="V133" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.4943180680274963</v>
       </c>
       <c r="W133" t="n">
-        <v>0.004153698217123747</v>
+        <v>0.1543027311563492</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8540570735931396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8618158102035522</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1021325290203094</v>
+        <v>6.019799548084848e-05</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9169399738311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.898228645324707</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1703643351793289</v>
+        <v>0.0003501138126011938</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.889164924621582</v>
       </c>
       <c r="V136" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.8732958436012268</v>
       </c>
       <c r="W136" t="n">
-        <v>0.003448905656114221</v>
+        <v>0.0002518277324270457</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>1.000038862228394</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.5145555734634399</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1282914131879807</v>
+        <v>0.235694020986557</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>1.042061805725098</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.8665348887443542</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2548975646495819</v>
+        <v>0.03080969862639904</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>1.044852018356323</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4247178435325623</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2924430668354034</v>
+        <v>0.3845663964748383</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9745490550994873</v>
       </c>
       <c r="V140" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.4042308628559113</v>
       </c>
       <c r="W140" t="n">
-        <v>0.03634278103709221</v>
+        <v>0.3252628743648529</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>1.012307167053223</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.4249280691146851</v>
       </c>
       <c r="W141" t="n">
-        <v>0.3996937274932861</v>
+        <v>0.345014214515686</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.7243790626525879</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.4252790808677673</v>
       </c>
       <c r="W142" t="n">
-        <v>0.04760883376002312</v>
+        <v>0.08946079760789871</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.7847039699554443</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.491726815700531</v>
       </c>
       <c r="W143" t="n">
-        <v>0.04978613927960396</v>
+        <v>0.08583561331033707</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.6926898956298828</v>
       </c>
       <c r="V144" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.5162395834922791</v>
       </c>
       <c r="W144" t="n">
-        <v>0.04606917500495911</v>
+        <v>0.0311347134411335</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.591541051864624</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4023659229278564</v>
       </c>
       <c r="W145" t="n">
-        <v>0.007623673882335424</v>
+        <v>0.03578722849488258</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.7126760482788086</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4108768999576569</v>
       </c>
       <c r="W146" t="n">
-        <v>0.03340953961014748</v>
+        <v>0.09108272939920425</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.7342269420623779</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4995036721229553</v>
       </c>
       <c r="W147" t="n">
-        <v>0.006658824160695076</v>
+        <v>0.05509501323103905</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>1.749162912368774</v>
       </c>
       <c r="V148" t="n">
-        <v>0.514564037322998</v>
+        <v>0.5165172815322876</v>
       </c>
       <c r="W148" t="n">
-        <v>1.524234414100647</v>
+        <v>1.519415259361267</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>1.001610994338989</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.8662552833557129</v>
       </c>
       <c r="W149" t="n">
-        <v>0.1297865062952042</v>
+        <v>0.01832116767764091</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.860230028629303</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0006530648679472506</v>
+        <v>0.1094241440296173</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>1.009587049484253</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4042762517929077</v>
       </c>
       <c r="W151" t="n">
-        <v>0.2229899913072586</v>
+        <v>0.3664011657238007</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5450611114501953</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.8729097843170166</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0001652309292694554</v>
+        <v>0.1074847504496574</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5734999179840088</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8651278614997864</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0156490970402956</v>
+        <v>0.08504685759544373</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.6739001274108887</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4934052228927612</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02538035437464714</v>
+        <v>0.03257840871810913</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5439260005950928</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.4990535974502563</v>
       </c>
       <c r="W155" t="n">
-        <v>0.009484962560236454</v>
+        <v>0.002013532677665353</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5302438735961914</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.4250030219554901</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0002590158546809107</v>
+        <v>0.01107563730329275</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5834450721740723</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8781298995018005</v>
       </c>
       <c r="W157" t="n">
-        <v>0.04332082718610764</v>
+        <v>0.08683914691209793</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.6906929016113281</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8618967533111572</v>
       </c>
       <c r="W158" t="n">
-        <v>0.000837362720631063</v>
+        <v>0.02931075915694237</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.7160649299621582</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.8668028712272644</v>
       </c>
       <c r="W159" t="n">
-        <v>0.04483989253640175</v>
+        <v>0.02272192761301994</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.598010778427124</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4014230370521545</v>
       </c>
       <c r="W160" t="n">
-        <v>0.03776379302144051</v>
+        <v>0.03864673897624016</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.7153480052947998</v>
       </c>
       <c r="V161" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4097611606121063</v>
       </c>
       <c r="W161" t="n">
-        <v>0.004684354644268751</v>
+        <v>0.09338331967592239</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4626121520996094</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.3972321748733521</v>
       </c>
       <c r="W162" t="n">
-        <v>0.003502754727378488</v>
+        <v>0.004274541512131691</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.5827970504760742</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8787847757339478</v>
       </c>
       <c r="W163" t="n">
-        <v>0.001717432518489659</v>
+        <v>0.08760873228311539</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.5078370571136475</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.8627844452857971</v>
       </c>
       <c r="W164" t="n">
-        <v>0.001124872360378504</v>
+        <v>0.1259876489639282</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.5675728321075439</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.5057202577590942</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01366743445396423</v>
+        <v>0.00382574088871479</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4103000164031982</v>
       </c>
       <c r="V166" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.4902955293655396</v>
       </c>
       <c r="W166" t="n">
-        <v>0.2871628701686859</v>
+        <v>0.00639928225427866</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4328699111938477</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8680428862571716</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02430715225636959</v>
+        <v>0.1893755197525024</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.401043176651001</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4032173454761505</v>
       </c>
       <c r="W168" t="n">
-        <v>0.06522736698389053</v>
+        <v>4.727010036731372e-06</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4814860820770264</v>
       </c>
       <c r="V169" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4140254855155945</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01716935820877552</v>
+        <v>0.004550931975245476</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4977660179138184</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.5147169232368469</v>
       </c>
       <c r="W170" t="n">
-        <v>2.211927721873508e-06</v>
+        <v>0.0002873331832233816</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.4146420955657959</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.5161283016204834</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1563640087842941</v>
+        <v>0.01029944978654385</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4225339889526367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.5310797691345215</v>
       </c>
       <c r="W172" t="n">
-        <v>0.003058481961488724</v>
+        <v>0.01178218610584736</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.5003869533538818</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4013692736625671</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0005178739666007459</v>
+        <v>0.009804501198232174</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.6014859676361084</v>
       </c>
       <c r="V174" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8960884809494019</v>
       </c>
       <c r="W174" t="n">
-        <v>0.004891315940767527</v>
+        <v>0.08679064363241196</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.6269838809967041</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4043229818344116</v>
       </c>
       <c r="W175" t="n">
-        <v>0.04988957196474075</v>
+        <v>0.04957787692546844</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4697051048278809</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8639097809791565</v>
       </c>
       <c r="W176" t="n">
-        <v>0.01414599269628525</v>
+        <v>0.1553973257541656</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.6418681144714355</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8844037652015686</v>
       </c>
       <c r="W177" t="n">
-        <v>0.0847325474023819</v>
+        <v>0.05882354080677032</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4358580112457275</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.4253039062023163</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01989059150218964</v>
+        <v>0.0001113891339628026</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.475985050201416</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.877087414264679</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01567871309816837</v>
+        <v>0.1608831137418747</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4401679039001465</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.5176423788070679</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0006786553421989083</v>
+        <v>0.006002294365316629</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5869040489196777</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.4033436179161072</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003142424626275897</v>
+        <v>0.03369443118572235</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9794049263000488</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4875338971614838</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1918561905622482</v>
+        <v>0.2419371157884598</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9947819709777832</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.3972116410732269</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1234581768512726</v>
+        <v>0.3570902645587921</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>1.303267002105713</v>
       </c>
       <c r="V184" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8723581433296204</v>
       </c>
       <c r="W184" t="n">
-        <v>0.8611151576042175</v>
+        <v>0.1856824457645416</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9455239772796631</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4878372251987457</v>
       </c>
       <c r="W185" t="n">
-        <v>0.08336165547370911</v>
+        <v>0.2094771564006805</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9072911739349365</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.8833648562431335</v>
       </c>
       <c r="W186" t="n">
-        <v>0.06374490261077881</v>
+        <v>0.0005724686780013144</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>1.161113977432251</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.889869749546051</v>
       </c>
       <c r="W187" t="n">
-        <v>0.5738350749015808</v>
+        <v>0.07357343286275864</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>1.067646026611328</v>
       </c>
       <c r="V188" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.4924189448356628</v>
       </c>
       <c r="W188" t="n">
-        <v>0.01473260577768087</v>
+        <v>0.33088618516922</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9490058422088623</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.8694348335266113</v>
       </c>
       <c r="W189" t="n">
-        <v>0.2974797189235687</v>
+        <v>0.006331545300781727</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>1.015818119049072</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8641869425773621</v>
       </c>
       <c r="W190" t="n">
-        <v>0.4422681629657745</v>
+        <v>0.02299201302230358</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.242063999176025</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8915883898735046</v>
       </c>
       <c r="W191" t="n">
-        <v>0.546553909778595</v>
+        <v>0.1228331550955772</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9658050537109375</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8606738448143005</v>
       </c>
       <c r="W192" t="n">
-        <v>0.08021339774131775</v>
+        <v>0.01105257123708725</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9985220432281494</v>
       </c>
       <c r="V193" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.4915894865989685</v>
       </c>
       <c r="W193" t="n">
-        <v>0.4174363315105438</v>
+        <v>0.2569806277751923</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.915024995803833</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.4261030554771423</v>
       </c>
       <c r="W194" t="n">
-        <v>0.28489950299263</v>
+        <v>0.2390446662902832</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9496200084686279</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8608797192573547</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1165689527988434</v>
+        <v>0.007874839007854462</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8781299591064453</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4023937284946442</v>
       </c>
       <c r="W196" t="n">
-        <v>0.003851014422252774</v>
+        <v>0.2263249605894089</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9179329872131348</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.3972445726394653</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1447641551494598</v>
+        <v>0.2711164355278015</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9417951107025146</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8645783066749573</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1657984703779221</v>
+        <v>0.005962434690445662</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9349501132965088</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.5131416320800781</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1199846342206001</v>
+        <v>0.177922397851944</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8828499317169189</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.5119118690490723</v>
       </c>
       <c r="W200" t="n">
-        <v>0.03433962166309357</v>
+        <v>0.1375950425863266</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9538199901580811</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.3972243666648865</v>
       </c>
       <c r="W201" t="n">
-        <v>0.02011935785412788</v>
+        <v>0.3097986876964569</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5713810920715332</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8743515610694885</v>
       </c>
       <c r="W202" t="n">
-        <v>0.0001154893761849962</v>
+        <v>0.09179110825061798</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5755140781402588</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.5083492994308472</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003783564083278179</v>
+        <v>0.004511107690632343</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5945589542388916</v>
       </c>
       <c r="V204" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4271540641784668</v>
       </c>
       <c r="W204" t="n">
-        <v>0.127374529838562</v>
+        <v>0.02802439779043198</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5229620933532715</v>
       </c>
       <c r="V205" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.8666753172874451</v>
       </c>
       <c r="W205" t="n">
-        <v>0.06787221133708954</v>
+        <v>0.1181387826800346</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5375070571899414</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.5158966779708862</v>
       </c>
       <c r="W206" t="n">
-        <v>0.07365056872367859</v>
+        <v>0.0004670085036195815</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5311958789825439</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.3972360789775848</v>
       </c>
       <c r="W207" t="n">
-        <v>0.000277789164101705</v>
+        <v>0.01794522814452648</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6338448524475098</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.3972143530845642</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01045281533151865</v>
+        <v>0.05599399283528328</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.566864013671875</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.403348445892334</v>
       </c>
       <c r="W209" t="n">
-        <v>0.04669393226504326</v>
+        <v>0.02673734165728092</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5531690120697021</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8678487539291382</v>
       </c>
       <c r="W210" t="n">
-        <v>0.04095826670527458</v>
+        <v>0.09902334213256836</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5796909332275391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8847779035568237</v>
       </c>
       <c r="W211" t="n">
-        <v>0.03941221535205841</v>
+        <v>0.09307806193828583</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5299561023712158</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.8914661407470703</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0783553272485733</v>
+        <v>0.1306895017623901</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5377700328826904</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8677032589912415</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01418508775532246</v>
+        <v>0.1088559329509735</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5300910472869873</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.4013935029506683</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02221289090812206</v>
+        <v>0.0165630578994751</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4989067912101746</v>
       </c>
       <c r="W215" t="n">
-        <v>0.03373600915074348</v>
+        <v>0.001234692404977977</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5986099243164062</v>
       </c>
       <c r="V216" t="n">
-        <v>0.672019362449646</v>
+        <v>0.399162620306015</v>
       </c>
       <c r="W216" t="n">
-        <v>0.005388945806771517</v>
+        <v>0.03977922722697258</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5535690784454346</v>
       </c>
       <c r="V217" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4996290802955627</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0003703504626173526</v>
+        <v>0.002909523434937</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5939450263977051</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8911641836166382</v>
       </c>
       <c r="W218" t="n">
-        <v>0.04982205480337143</v>
+        <v>0.08833922445774078</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5699090957641602</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3993150591850281</v>
       </c>
       <c r="W219" t="n">
-        <v>0.03572482243180275</v>
+        <v>0.02910232543945312</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5366451740264893</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4015222489833832</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01111417915672064</v>
+        <v>0.01825820468366146</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5297369956970215</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.87112957239151</v>
       </c>
       <c r="W221" t="n">
-        <v>7.382187504845206e-06</v>
+        <v>0.1165488883852959</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4540388584136963</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4026279151439667</v>
       </c>
       <c r="W222" t="n">
-        <v>0.002538422821089625</v>
+        <v>0.002643085084855556</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.5054399967193604</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.8706841468811035</v>
       </c>
       <c r="W223" t="n">
-        <v>0.02392054162919521</v>
+        <v>0.1334032863378525</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4479269981384277</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4022617638111115</v>
       </c>
       <c r="W224" t="n">
-        <v>0.000337316858349368</v>
+        <v>0.00208531366661191</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4337079524993896</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8901859521865845</v>
       </c>
       <c r="W225" t="n">
-        <v>0.008873777464032173</v>
+        <v>0.2083721607923508</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4106848239898682</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5005890130996704</v>
       </c>
       <c r="W226" t="n">
-        <v>4.569212251226418e-06</v>
+        <v>0.00808276329189539</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4406330585479736</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.8642009496688843</v>
       </c>
       <c r="W227" t="n">
-        <v>0.04491767659783363</v>
+        <v>0.1794097572565079</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4094099998474121</v>
       </c>
       <c r="V228" t="n">
-        <v>0.514474630355835</v>
+        <v>0.869161069393158</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0110385762527585</v>
+        <v>0.211371049284935</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4496161937713623</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.3972360193729401</v>
       </c>
       <c r="W229" t="n">
-        <v>0.002116995630785823</v>
+        <v>0.002743682591244578</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.40966796875</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.5403110980987549</v>
       </c>
       <c r="W230" t="n">
-        <v>0.06010505557060242</v>
+        <v>0.01706762798130512</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4010720252990723</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8617792129516602</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01269688084721565</v>
+        <v>0.2122511118650436</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4480741024017334</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.8733268976211548</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05497338995337486</v>
+        <v>0.180839940905571</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.402522087097168</v>
       </c>
       <c r="V233" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.4032068848609924</v>
       </c>
       <c r="W233" t="n">
-        <v>0.2933875024318695</v>
+        <v>4.689479737862712e-07</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026041030883789</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.3972494304180145</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01570709422230721</v>
+        <v>2.867251896532252e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4044098854064941</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4910391569137573</v>
       </c>
       <c r="W235" t="n">
-        <v>0.009769204072654247</v>
+        <v>0.007504630833864212</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4055910110473633</v>
       </c>
       <c r="V236" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.3972195684909821</v>
       </c>
       <c r="W236" t="n">
-        <v>0.01169013325124979</v>
+        <v>7.008104876149446e-05</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4199600219726562</v>
       </c>
       <c r="V237" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5165233612060547</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1484700888395309</v>
+        <v>0.009324478916823864</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3885390758514404</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4942289590835571</v>
       </c>
       <c r="W238" t="n">
-        <v>0.008033175021409988</v>
+        <v>0.01117035187780857</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3922989368438721</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.8648321032524109</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0001222807477461174</v>
+        <v>0.2232875972986221</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909039497375488</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5195631384849548</v>
       </c>
       <c r="W240" t="n">
-        <v>0.01871317811310291</v>
+        <v>0.01655318774282932</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951401710510254</v>
       </c>
       <c r="V241" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.8801859617233276</v>
       </c>
       <c r="W241" t="n">
-        <v>0.02136553451418877</v>
+        <v>0.2352694123983383</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9211130142211914</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.401772528886795</v>
       </c>
       <c r="W242" t="n">
-        <v>0.1758261471986771</v>
+        <v>0.2697145640850067</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9806990623474121</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8786541819572449</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1060917004942894</v>
+        <v>0.01041315775364637</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.870244026184082</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8615063428878784</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1328515112400055</v>
+        <v>7.634711073478684e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767430782318115</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8937615752220154</v>
       </c>
       <c r="W245" t="n">
-        <v>0.138795867562294</v>
+        <v>0.0002896292426157743</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8698410987854004</v>
       </c>
       <c r="V246" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.8680410981178284</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2391297966241837</v>
+        <v>3.24000234286359e-06</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8713259696960449</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4898403286933899</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2714731991291046</v>
+        <v>0.1455312967300415</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8667900562286377</v>
       </c>
       <c r="V248" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4023427665233612</v>
       </c>
       <c r="W248" t="n">
-        <v>0.005723171401768923</v>
+        <v>0.2157112807035446</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8821539878845215</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4957060217857361</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2806063890457153</v>
+        <v>0.1493420302867889</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8690099716186523</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.5164148807525635</v>
       </c>
       <c r="W250" t="n">
-        <v>0.003799580736085773</v>
+        <v>0.1243233010172844</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8637280464172363</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.500993013381958</v>
       </c>
       <c r="W251" t="n">
-        <v>0.04036802798509598</v>
+        <v>0.1315767019987106</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9269728660583496</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.4033811390399933</v>
       </c>
       <c r="W252" t="n">
-        <v>0.07402386516332626</v>
+        <v>0.2741483151912689</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8710360527038574</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.3972227573394775</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1276021599769592</v>
+        <v>0.2244990319013596</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685760498046875</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4988689422607422</v>
       </c>
       <c r="W254" t="n">
-        <v>0.003786380169913173</v>
+        <v>0.1366833448410034</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8729279041290283</v>
       </c>
       <c r="V255" t="n">
-        <v>0.466268926858902</v>
+        <v>0.8745490908622742</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1653715223073959</v>
+        <v>2.628246420499636e-06</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.944101095199585</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.4244855642318726</v>
       </c>
       <c r="W256" t="n">
-        <v>0.08966254442930222</v>
+        <v>0.2700003087520599</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8737947940826416</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4986573457717896</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2365317195653915</v>
+        <v>0.1407281011343002</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8584229946136475</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.404334157705307</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2333278805017471</v>
+        <v>0.206196665763855</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8679828643798828</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5162531137466431</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1242878288030624</v>
+        <v>0.1237138211727142</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9213440418243408</v>
       </c>
       <c r="V260" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5195748209953308</v>
       </c>
       <c r="W260" t="n">
-        <v>0.0006929108058102429</v>
+        <v>0.1614185124635696</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8658730983734131</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.4105897545814514</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2363781929016113</v>
+        <v>0.2072829157114029</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5375349521636963</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.4046513438224792</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02783425897359848</v>
+        <v>0.01765805296599865</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5455069541931152</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4989712238311768</v>
       </c>
       <c r="W263" t="n">
-        <v>0.06888987869024277</v>
+        <v>0.002165574114769697</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5220639705657959</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4044367074966431</v>
       </c>
       <c r="W264" t="n">
-        <v>0.001959379762411118</v>
+        <v>0.01383617334067822</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5788588523864746</v>
       </c>
       <c r="V265" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4023006558418274</v>
       </c>
       <c r="W265" t="n">
-        <v>0.1361695975065231</v>
+        <v>0.03117279708385468</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5263650417327881</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.5115058422088623</v>
       </c>
       <c r="W266" t="n">
-        <v>0.0004590565513353795</v>
+        <v>0.0002207958168582991</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5242989063262939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.4936745166778564</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02346254326403141</v>
+        <v>0.0009378532413393259</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5247111320495605</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.4962198436260223</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0001600680698174983</v>
+        <v>0.0008117535035125911</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5220930576324463</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8649448752403259</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03063241019845009</v>
+        <v>0.117547370493412</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5763959884643555</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.8790367245674133</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0298516433686018</v>
+        <v>0.09159141778945923</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.52097487449646</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4261789917945862</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01792302913963795</v>
+        <v>0.008986259810626507</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5524191856384277</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4030556082725525</v>
       </c>
       <c r="W272" t="n">
-        <v>0.04065685346722603</v>
+        <v>0.02230947837233543</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241289138793945</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.5409343242645264</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0001029490158543922</v>
+        <v>0.0002824218245223165</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5241098403930664</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5406209826469421</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0002908864116761833</v>
+        <v>0.0002726178208831698</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179378986358643</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.3972221612930298</v>
       </c>
       <c r="W275" t="n">
-        <v>1.642968163650949e-05</v>
+        <v>0.01457228884100914</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.3972526788711548</v>
       </c>
       <c r="W276" t="n">
-        <v>0.004787111189216375</v>
+        <v>0.01496126316487789</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5325438976287842</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4261436462402344</v>
       </c>
       <c r="W277" t="n">
-        <v>0.03303522989153862</v>
+        <v>0.01132101379334927</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5204300880432129</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8712201714515686</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01803024485707283</v>
+        <v>0.1230536848306656</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5581910610198975</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.3972434997558594</v>
       </c>
       <c r="W279" t="n">
-        <v>0.04301797226071358</v>
+        <v>0.02590411715209484</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.5160180330276489</v>
       </c>
       <c r="W280" t="n">
-        <v>0.008146711625158787</v>
+        <v>0.0006219507777132094</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.8727163076400757</v>
       </c>
       <c r="W281" t="n">
-        <v>8.475696813547984e-05</v>
+        <v>0.1208732426166534</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4176249504089355</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.4248166382312775</v>
       </c>
       <c r="W282" t="n">
-        <v>0.06484067440032959</v>
+        <v>5.172037344891578e-05</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4070680141448975</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.8632431626319885</v>
       </c>
       <c r="W283" t="n">
-        <v>1.430085012543714e-05</v>
+        <v>0.2080957591533661</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3968582153320312</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5162492990493774</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01379853487014771</v>
+        <v>0.01425423100590706</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3917670249938965</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.516278088092804</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01531109027564526</v>
+        <v>0.01550300512462854</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.5013454556465149</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01155146118253469</v>
+        <v>0.01144633255898952</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.408660888671875</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8610893487930298</v>
       </c>
       <c r="W287" t="n">
-        <v>0.1399153769016266</v>
+        <v>0.2046915143728256</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990390300750732</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4884238839149475</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1655385494232178</v>
+        <v>0.007989652454853058</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4037508964538574</v>
       </c>
       <c r="V289" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4091910719871521</v>
       </c>
       <c r="W289" t="n">
-        <v>0.2941285669803619</v>
+        <v>2.959551056846976e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3965380191802979</v>
       </c>
       <c r="V290" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4879921674728394</v>
       </c>
       <c r="W290" t="n">
-        <v>0.1710416674613953</v>
+        <v>0.008363861590623856</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4003570079803467</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8600938320159912</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002457651076838374</v>
+        <v>0.2113579511642456</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4289281368255615</v>
       </c>
       <c r="V292" t="n">
-        <v>0.350296825170517</v>
+        <v>0.5124634504318237</v>
       </c>
       <c r="W292" t="n">
-        <v>0.006182883400470018</v>
+        <v>0.006978148594498634</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4009029865264893</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.3991426527500153</v>
       </c>
       <c r="W293" t="n">
-        <v>0.05767710506916046</v>
+        <v>3.098775096077588e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4118380546569824</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.3972397446632385</v>
       </c>
       <c r="W294" t="n">
-        <v>0.003533909330144525</v>
+        <v>0.000213110659387894</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3951239585876465</v>
       </c>
       <c r="V295" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8605090379714966</v>
       </c>
       <c r="W295" t="n">
-        <v>0.1503243893384933</v>
+        <v>0.2165832668542862</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3940439224243164</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3989490866661072</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02178099006414413</v>
+        <v>2.406063686066773e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973109722137451</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8681371808052063</v>
       </c>
       <c r="W297" t="n">
-        <v>0.00216473382897675</v>
+        <v>0.2216773182153702</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.402285099029541</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4044071137905121</v>
       </c>
       <c r="W298" t="n">
-        <v>0.07853829860687256</v>
+        <v>4.502946467255242e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.422828197479248</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8622573614120483</v>
       </c>
       <c r="W299" t="n">
-        <v>0.006202409509569407</v>
+        <v>0.1930979937314987</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4005999565124512</v>
       </c>
       <c r="V300" t="n">
-        <v>0.656647801399231</v>
+        <v>0.8850186467170715</v>
       </c>
       <c r="W300" t="n">
-        <v>0.06556049734354019</v>
+        <v>0.2346614748239517</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141850471496582</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4255363643169403</v>
       </c>
       <c r="W301" t="n">
-        <v>0.007858059369027615</v>
+        <v>0.0001288524072151631</v>
       </c>
     </row>
     <row r="302" spans="1:23">
